--- a/user-data/intlresources-total/intlresources-total.xlsx
+++ b/user-data/intlresources-total/intlresources-total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -997,9 +997,6 @@
     <t>Source: Development Initiatives calculations based on numerous sources (see notes for International resource flows to and from developing countries data).</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1385,42 +1382,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15">
@@ -1436,11 +1433,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/intlresources-total/intlresources-total.xlsx
+++ b/user-data/intlresources-total/intlresources-total.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1006,7 +1006,7 @@
     <t>The sum of net inflows of FDI, remittances, gross ODA, gross OOFs, net inflows of portfolio equity, net short-term debt, long-term debt, humanitarian assistance and peacekeeping. This series aims to estimate gross inflows so negative net inflows are excluded (set to zero). Data on peacekeeping is only available for 2012 and humanitarian assistance (excluding that reported as ODA to the OECD DAC) is only available from 2000-2012.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/intlresources-total/intlresources-total.xlsx
+++ b/user-data/intlresources-total/intlresources-total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -1012,7 +1012,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1435,6 +1438,11 @@
         <v>334</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/intlresources-total/intlresources-total.xlsx
+++ b/user-data/intlresources-total/intlresources-total.xlsx
@@ -61,7 +61,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -121,7 +121,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CU</t>
@@ -673,7 +673,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -691,7 +691,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -703,7 +703,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -895,7 +895,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>YE</t>
@@ -1021,7 +1021,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7922,7 +7922,7 @@
         <v>1990</v>
       </c>
       <c r="D462" t="n">
-        <v>3733220000</v>
+        <v>117920000</v>
       </c>
     </row>
     <row r="463">
@@ -7936,7 +7936,7 @@
         <v>1991</v>
       </c>
       <c r="D463" t="n">
-        <v>2769690000</v>
+        <v>144000000</v>
       </c>
     </row>
     <row r="464">
@@ -7950,7 +7950,7 @@
         <v>1992</v>
       </c>
       <c r="D464" t="n">
-        <v>2847020000</v>
+        <v>322190000</v>
       </c>
     </row>
     <row r="465">
@@ -7964,7 +7964,7 @@
         <v>1993</v>
       </c>
       <c r="D465" t="n">
-        <v>2639770000</v>
+        <v>503980000</v>
       </c>
     </row>
     <row r="466">
@@ -7978,7 +7978,7 @@
         <v>1994</v>
       </c>
       <c r="D466" t="n">
-        <v>4213040000</v>
+        <v>568990000</v>
       </c>
     </row>
     <row r="467">
@@ -7992,7 +7992,7 @@
         <v>1995</v>
       </c>
       <c r="D467" t="n">
-        <v>3609870000</v>
+        <v>809790000</v>
       </c>
     </row>
     <row r="468">
@@ -8006,7 +8006,7 @@
         <v>1996</v>
       </c>
       <c r="D468" t="n">
-        <v>6121830000</v>
+        <v>777680000</v>
       </c>
     </row>
     <row r="469">
@@ -8020,7 +8020,7 @@
         <v>1997</v>
       </c>
       <c r="D469" t="n">
-        <v>3412210000</v>
+        <v>829910000</v>
       </c>
     </row>
     <row r="470">
@@ -8034,7 +8034,7 @@
         <v>1998</v>
       </c>
       <c r="D470" t="n">
-        <v>2608930000</v>
+        <v>887770000</v>
       </c>
     </row>
     <row r="471">
@@ -8048,7 +8048,7 @@
         <v>1999</v>
       </c>
       <c r="D471" t="n">
-        <v>2475350000</v>
+        <v>842740000</v>
       </c>
     </row>
     <row r="472">
@@ -8062,7 +8062,7 @@
         <v>2000</v>
       </c>
       <c r="D472" t="n">
-        <v>1328730000</v>
+        <v>1127240000</v>
       </c>
     </row>
     <row r="473">
@@ -8076,7 +8076,7 @@
         <v>2001</v>
       </c>
       <c r="D473" t="n">
-        <v>1031480000</v>
+        <v>1044190000</v>
       </c>
     </row>
     <row r="474">
@@ -8090,7 +8090,7 @@
         <v>2002</v>
       </c>
       <c r="D474" t="n">
-        <v>3364350000</v>
+        <v>1135850000</v>
       </c>
     </row>
     <row r="475">
@@ -8104,7 +8104,7 @@
         <v>2003</v>
       </c>
       <c r="D475" t="n">
-        <v>1083190000</v>
+        <v>1077640000</v>
       </c>
     </row>
     <row r="476">
@@ -8118,7 +8118,7 @@
         <v>2004</v>
       </c>
       <c r="D476" t="n">
-        <v>825570000</v>
+        <v>1255350000</v>
       </c>
     </row>
     <row r="477">
@@ -8132,7 +8132,7 @@
         <v>2005</v>
       </c>
       <c r="D477" t="n">
-        <v>856180000</v>
+        <v>1301070000</v>
       </c>
     </row>
     <row r="478">
@@ -8146,7 +8146,7 @@
         <v>2006</v>
       </c>
       <c r="D478" t="n">
-        <v>1063310000</v>
+        <v>1596930000</v>
       </c>
     </row>
     <row r="479">
@@ -8160,7 +8160,7 @@
         <v>2007</v>
       </c>
       <c r="D479" t="n">
-        <v>933500000</v>
+        <v>1724730000</v>
       </c>
     </row>
     <row r="480">
@@ -8174,7 +8174,7 @@
         <v>2008</v>
       </c>
       <c r="D480" t="n">
-        <v>1952340000</v>
+        <v>2426070000</v>
       </c>
     </row>
     <row r="481">
@@ -8188,7 +8188,7 @@
         <v>2009</v>
       </c>
       <c r="D481" t="n">
-        <v>3822860000</v>
+        <v>2051650000</v>
       </c>
     </row>
     <row r="482">
@@ -8202,7 +8202,7 @@
         <v>2010</v>
       </c>
       <c r="D482" t="n">
-        <v>2505150000</v>
+        <v>1901780000</v>
       </c>
     </row>
     <row r="483">
@@ -8216,7 +8216,7 @@
         <v>2011</v>
       </c>
       <c r="D483" t="n">
-        <v>3083360000</v>
+        <v>2451820000</v>
       </c>
     </row>
     <row r="484">
@@ -8230,7 +8230,7 @@
         <v>2012</v>
       </c>
       <c r="D484" t="n">
-        <v>6114880000</v>
+        <v>3427690000</v>
       </c>
     </row>
     <row r="485">
@@ -8244,7 +8244,7 @@
         <v>1990</v>
       </c>
       <c r="D485" t="n">
-        <v>117920000</v>
+        <v>2062220000</v>
       </c>
     </row>
     <row r="486">
@@ -8258,7 +8258,7 @@
         <v>1991</v>
       </c>
       <c r="D486" t="n">
-        <v>144000000</v>
+        <v>1455750000</v>
       </c>
     </row>
     <row r="487">
@@ -8272,7 +8272,7 @@
         <v>1992</v>
       </c>
       <c r="D487" t="n">
-        <v>322190000</v>
+        <v>1886410000</v>
       </c>
     </row>
     <row r="488">
@@ -8286,7 +8286,7 @@
         <v>1993</v>
       </c>
       <c r="D488" t="n">
-        <v>503980000</v>
+        <v>1544180000</v>
       </c>
     </row>
     <row r="489">
@@ -8300,7 +8300,7 @@
         <v>1994</v>
       </c>
       <c r="D489" t="n">
-        <v>568990000</v>
+        <v>1668010000</v>
       </c>
     </row>
     <row r="490">
@@ -8314,7 +8314,7 @@
         <v>1995</v>
       </c>
       <c r="D490" t="n">
-        <v>809790000</v>
+        <v>1274440000</v>
       </c>
     </row>
     <row r="491">
@@ -8328,7 +8328,7 @@
         <v>1996</v>
       </c>
       <c r="D491" t="n">
-        <v>777680000</v>
+        <v>1151770000</v>
       </c>
     </row>
     <row r="492">
@@ -8342,7 +8342,7 @@
         <v>1997</v>
       </c>
       <c r="D492" t="n">
-        <v>829910000</v>
+        <v>2159450000</v>
       </c>
     </row>
     <row r="493">
@@ -8356,7 +8356,7 @@
         <v>1998</v>
       </c>
       <c r="D493" t="n">
-        <v>887770000</v>
+        <v>1748930000</v>
       </c>
     </row>
     <row r="494">
@@ -8370,7 +8370,7 @@
         <v>1999</v>
       </c>
       <c r="D494" t="n">
-        <v>842740000</v>
+        <v>1373940000</v>
       </c>
     </row>
     <row r="495">
@@ -8384,7 +8384,7 @@
         <v>2000</v>
       </c>
       <c r="D495" t="n">
-        <v>1127240000</v>
+        <v>1105640000</v>
       </c>
     </row>
     <row r="496">
@@ -8398,7 +8398,7 @@
         <v>2001</v>
       </c>
       <c r="D496" t="n">
-        <v>1044190000</v>
+        <v>1264040000</v>
       </c>
     </row>
     <row r="497">
@@ -8412,7 +8412,7 @@
         <v>2002</v>
       </c>
       <c r="D497" t="n">
-        <v>1135850000</v>
+        <v>2009190000</v>
       </c>
     </row>
     <row r="498">
@@ -8426,7 +8426,7 @@
         <v>2003</v>
       </c>
       <c r="D498" t="n">
-        <v>1077640000</v>
+        <v>2253420000</v>
       </c>
     </row>
     <row r="499">
@@ -8440,7 +8440,7 @@
         <v>2004</v>
       </c>
       <c r="D499" t="n">
-        <v>1255350000</v>
+        <v>1893680000</v>
       </c>
     </row>
     <row r="500">
@@ -8454,7 +8454,7 @@
         <v>2005</v>
       </c>
       <c r="D500" t="n">
-        <v>1301070000</v>
+        <v>1205930000</v>
       </c>
     </row>
     <row r="501">
@@ -8468,7 +8468,7 @@
         <v>2006</v>
       </c>
       <c r="D501" t="n">
-        <v>1596930000</v>
+        <v>4482690000</v>
       </c>
     </row>
     <row r="502">
@@ -8482,7 +8482,7 @@
         <v>2007</v>
       </c>
       <c r="D502" t="n">
-        <v>1724730000</v>
+        <v>2726900000</v>
       </c>
     </row>
     <row r="503">
@@ -8496,7 +8496,7 @@
         <v>2008</v>
       </c>
       <c r="D503" t="n">
-        <v>2426070000</v>
+        <v>1721560000</v>
       </c>
     </row>
     <row r="504">
@@ -8510,7 +8510,7 @@
         <v>2009</v>
       </c>
       <c r="D504" t="n">
-        <v>2051650000</v>
+        <v>1375250000</v>
       </c>
     </row>
     <row r="505">
@@ -8524,7 +8524,7 @@
         <v>2010</v>
       </c>
       <c r="D505" t="n">
-        <v>1901780000</v>
+        <v>1902500000</v>
       </c>
     </row>
     <row r="506">
@@ -8538,7 +8538,7 @@
         <v>2011</v>
       </c>
       <c r="D506" t="n">
-        <v>2451820000</v>
+        <v>1452210000</v>
       </c>
     </row>
     <row r="507">
@@ -8552,7 +8552,7 @@
         <v>2012</v>
       </c>
       <c r="D507" t="n">
-        <v>3427690000</v>
+        <v>1786660000</v>
       </c>
     </row>
     <row r="508">
@@ -8566,7 +8566,7 @@
         <v>1990</v>
       </c>
       <c r="D508" t="n">
-        <v>2062220000</v>
+        <v>268760000</v>
       </c>
     </row>
     <row r="509">
@@ -8580,7 +8580,7 @@
         <v>1991</v>
       </c>
       <c r="D509" t="n">
-        <v>1455750000</v>
+        <v>263680000</v>
       </c>
     </row>
     <row r="510">
@@ -8594,7 +8594,7 @@
         <v>1992</v>
       </c>
       <c r="D510" t="n">
-        <v>1886410000</v>
+        <v>308210000</v>
       </c>
     </row>
     <row r="511">
@@ -8608,7 +8608,7 @@
         <v>1993</v>
       </c>
       <c r="D511" t="n">
-        <v>1544180000</v>
+        <v>292960000</v>
       </c>
     </row>
     <row r="512">
@@ -8622,7 +8622,7 @@
         <v>1994</v>
       </c>
       <c r="D512" t="n">
-        <v>1668010000</v>
+        <v>348470000</v>
       </c>
     </row>
     <row r="513">
@@ -8636,7 +8636,7 @@
         <v>1995</v>
       </c>
       <c r="D513" t="n">
-        <v>1274440000</v>
+        <v>320450000</v>
       </c>
     </row>
     <row r="514">
@@ -8650,7 +8650,7 @@
         <v>1996</v>
       </c>
       <c r="D514" t="n">
-        <v>1151770000</v>
+        <v>323930000</v>
       </c>
     </row>
     <row r="515">
@@ -8664,7 +8664,7 @@
         <v>1997</v>
       </c>
       <c r="D515" t="n">
-        <v>2159450000</v>
+        <v>344020000</v>
       </c>
     </row>
     <row r="516">
@@ -8678,7 +8678,7 @@
         <v>1998</v>
       </c>
       <c r="D516" t="n">
-        <v>1748930000</v>
+        <v>402210000</v>
       </c>
     </row>
     <row r="517">
@@ -8692,7 +8692,7 @@
         <v>1999</v>
       </c>
       <c r="D517" t="n">
-        <v>1373940000</v>
+        <v>358490000</v>
       </c>
     </row>
     <row r="518">
@@ -8706,7 +8706,7 @@
         <v>2000</v>
       </c>
       <c r="D518" t="n">
-        <v>1105640000</v>
+        <v>424510000</v>
       </c>
     </row>
     <row r="519">
@@ -8720,7 +8720,7 @@
         <v>2001</v>
       </c>
       <c r="D519" t="n">
-        <v>1264040000</v>
+        <v>410590000</v>
       </c>
     </row>
     <row r="520">
@@ -8734,7 +8734,7 @@
         <v>2002</v>
       </c>
       <c r="D520" t="n">
-        <v>2009190000</v>
+        <v>316460000</v>
       </c>
     </row>
     <row r="521">
@@ -8748,7 +8748,7 @@
         <v>2003</v>
       </c>
       <c r="D521" t="n">
-        <v>2253420000</v>
+        <v>392690000</v>
       </c>
     </row>
     <row r="522">
@@ -8762,7 +8762,7 @@
         <v>2004</v>
       </c>
       <c r="D522" t="n">
-        <v>1893680000</v>
+        <v>360910000</v>
       </c>
     </row>
     <row r="523">
@@ -8776,7 +8776,7 @@
         <v>2005</v>
       </c>
       <c r="D523" t="n">
-        <v>1205930000</v>
+        <v>543890000</v>
       </c>
     </row>
     <row r="524">
@@ -8790,7 +8790,7 @@
         <v>2006</v>
       </c>
       <c r="D524" t="n">
-        <v>4482690000</v>
+        <v>417020000</v>
       </c>
     </row>
     <row r="525">
@@ -8804,7 +8804,7 @@
         <v>2007</v>
       </c>
       <c r="D525" t="n">
-        <v>2726900000</v>
+        <v>465910000</v>
       </c>
     </row>
     <row r="526">
@@ -8818,7 +8818,7 @@
         <v>2008</v>
       </c>
       <c r="D526" t="n">
-        <v>1721560000</v>
+        <v>573810000</v>
       </c>
     </row>
     <row r="527">
@@ -8832,7 +8832,7 @@
         <v>2009</v>
       </c>
       <c r="D527" t="n">
-        <v>1375250000</v>
+        <v>701010000</v>
       </c>
     </row>
     <row r="528">
@@ -8846,7 +8846,7 @@
         <v>2010</v>
       </c>
       <c r="D528" t="n">
-        <v>1902500000</v>
+        <v>682810000</v>
       </c>
     </row>
     <row r="529">
@@ -8860,7 +8860,7 @@
         <v>2011</v>
       </c>
       <c r="D529" t="n">
-        <v>1452210000</v>
+        <v>658860000</v>
       </c>
     </row>
     <row r="530">
@@ -8874,7 +8874,7 @@
         <v>2012</v>
       </c>
       <c r="D530" t="n">
-        <v>1786660000</v>
+        <v>587590000</v>
       </c>
     </row>
     <row r="531">
@@ -8888,7 +8888,7 @@
         <v>1990</v>
       </c>
       <c r="D531" t="n">
-        <v>268760000</v>
+        <v>529650000</v>
       </c>
     </row>
     <row r="532">
@@ -8902,7 +8902,7 @@
         <v>1991</v>
       </c>
       <c r="D532" t="n">
-        <v>263680000</v>
+        <v>387840000</v>
       </c>
     </row>
     <row r="533">
@@ -8916,7 +8916,7 @@
         <v>1992</v>
       </c>
       <c r="D533" t="n">
-        <v>308210000</v>
+        <v>331070000</v>
       </c>
     </row>
     <row r="534">
@@ -8930,7 +8930,7 @@
         <v>1993</v>
       </c>
       <c r="D534" t="n">
-        <v>292960000</v>
+        <v>335050000</v>
       </c>
     </row>
     <row r="535">
@@ -8944,7 +8944,7 @@
         <v>1994</v>
       </c>
       <c r="D535" t="n">
-        <v>348470000</v>
+        <v>272040000</v>
       </c>
     </row>
     <row r="536">
@@ -8958,7 +8958,7 @@
         <v>1995</v>
       </c>
       <c r="D536" t="n">
-        <v>320450000</v>
+        <v>250910000</v>
       </c>
     </row>
     <row r="537">
@@ -8972,7 +8972,7 @@
         <v>1996</v>
       </c>
       <c r="D537" t="n">
-        <v>323930000</v>
+        <v>292320000</v>
       </c>
     </row>
     <row r="538">
@@ -8986,7 +8986,7 @@
         <v>1997</v>
       </c>
       <c r="D538" t="n">
-        <v>344020000</v>
+        <v>166310000</v>
       </c>
     </row>
     <row r="539">
@@ -9000,7 +9000,7 @@
         <v>1998</v>
       </c>
       <c r="D539" t="n">
-        <v>402210000</v>
+        <v>205970000</v>
       </c>
     </row>
     <row r="540">
@@ -9014,7 +9014,7 @@
         <v>1999</v>
       </c>
       <c r="D540" t="n">
-        <v>358490000</v>
+        <v>240640000</v>
       </c>
     </row>
     <row r="541">
@@ -9028,7 +9028,7 @@
         <v>2000</v>
       </c>
       <c r="D541" t="n">
-        <v>424510000</v>
+        <v>178060000</v>
       </c>
     </row>
     <row r="542">
@@ -9042,7 +9042,7 @@
         <v>2001</v>
       </c>
       <c r="D542" t="n">
-        <v>410590000</v>
+        <v>149280000</v>
       </c>
     </row>
     <row r="543">
@@ -9056,7 +9056,7 @@
         <v>2002</v>
       </c>
       <c r="D543" t="n">
-        <v>316460000</v>
+        <v>110340000</v>
       </c>
     </row>
     <row r="544">
@@ -9070,7 +9070,7 @@
         <v>2003</v>
       </c>
       <c r="D544" t="n">
-        <v>392690000</v>
+        <v>86640000</v>
       </c>
     </row>
     <row r="545">
@@ -9084,7 +9084,7 @@
         <v>2004</v>
       </c>
       <c r="D545" t="n">
-        <v>360910000</v>
+        <v>151990000</v>
       </c>
     </row>
     <row r="546">
@@ -9098,7 +9098,7 @@
         <v>2005</v>
       </c>
       <c r="D546" t="n">
-        <v>543890000</v>
+        <v>131600000</v>
       </c>
     </row>
     <row r="547">
@@ -9112,7 +9112,7 @@
         <v>2006</v>
       </c>
       <c r="D547" t="n">
-        <v>417020000</v>
+        <v>299530000</v>
       </c>
     </row>
     <row r="548">
@@ -9126,7 +9126,7 @@
         <v>2007</v>
       </c>
       <c r="D548" t="n">
-        <v>465910000</v>
+        <v>277350000</v>
       </c>
     </row>
     <row r="549">
@@ -9140,7 +9140,7 @@
         <v>2008</v>
       </c>
       <c r="D549" t="n">
-        <v>573810000</v>
+        <v>363220000</v>
       </c>
     </row>
     <row r="550">
@@ -9154,7 +9154,7 @@
         <v>2009</v>
       </c>
       <c r="D550" t="n">
-        <v>701010000</v>
+        <v>947050000</v>
       </c>
     </row>
     <row r="551">
@@ -9168,7 +9168,7 @@
         <v>2010</v>
       </c>
       <c r="D551" t="n">
-        <v>682810000</v>
+        <v>343020000</v>
       </c>
     </row>
     <row r="552">
@@ -9182,7 +9182,7 @@
         <v>2011</v>
       </c>
       <c r="D552" t="n">
-        <v>658860000</v>
+        <v>377230000</v>
       </c>
     </row>
     <row r="553">
@@ -9196,7 +9196,7 @@
         <v>2012</v>
       </c>
       <c r="D553" t="n">
-        <v>587590000</v>
+        <v>291720000</v>
       </c>
     </row>
     <row r="554">
@@ -9210,7 +9210,7 @@
         <v>1990</v>
       </c>
       <c r="D554" t="n">
-        <v>529650000</v>
+        <v>495020000</v>
       </c>
     </row>
     <row r="555">
@@ -9224,7 +9224,7 @@
         <v>1991</v>
       </c>
       <c r="D555" t="n">
-        <v>387840000</v>
+        <v>442670000</v>
       </c>
     </row>
     <row r="556">
@@ -9238,7 +9238,7 @@
         <v>1992</v>
       </c>
       <c r="D556" t="n">
-        <v>331070000</v>
+        <v>507120000</v>
       </c>
     </row>
     <row r="557">
@@ -9252,7 +9252,7 @@
         <v>1993</v>
       </c>
       <c r="D557" t="n">
-        <v>335050000</v>
+        <v>489180000</v>
       </c>
     </row>
     <row r="558">
@@ -9266,7 +9266,7 @@
         <v>1994</v>
       </c>
       <c r="D558" t="n">
-        <v>272040000</v>
+        <v>557160000</v>
       </c>
     </row>
     <row r="559">
@@ -9280,7 +9280,7 @@
         <v>1995</v>
       </c>
       <c r="D559" t="n">
-        <v>250910000</v>
+        <v>359130000</v>
       </c>
     </row>
     <row r="560">
@@ -9294,7 +9294,7 @@
         <v>1996</v>
       </c>
       <c r="D560" t="n">
-        <v>292320000</v>
+        <v>453100000</v>
       </c>
     </row>
     <row r="561">
@@ -9308,7 +9308,7 @@
         <v>1997</v>
       </c>
       <c r="D561" t="n">
-        <v>166310000</v>
+        <v>419480000</v>
       </c>
     </row>
     <row r="562">
@@ -9322,7 +9322,7 @@
         <v>1998</v>
       </c>
       <c r="D562" t="n">
-        <v>205970000</v>
+        <v>324370000</v>
       </c>
     </row>
     <row r="563">
@@ -9336,7 +9336,7 @@
         <v>1999</v>
       </c>
       <c r="D563" t="n">
-        <v>240640000</v>
+        <v>336720000</v>
       </c>
     </row>
     <row r="564">
@@ -9350,7 +9350,7 @@
         <v>2000</v>
       </c>
       <c r="D564" t="n">
-        <v>178060000</v>
+        <v>260830000</v>
       </c>
     </row>
     <row r="565">
@@ -9364,7 +9364,7 @@
         <v>2001</v>
       </c>
       <c r="D565" t="n">
-        <v>149280000</v>
+        <v>475070000</v>
       </c>
     </row>
     <row r="566">
@@ -9378,7 +9378,7 @@
         <v>2002</v>
       </c>
       <c r="D566" t="n">
-        <v>110340000</v>
+        <v>879680000</v>
       </c>
     </row>
     <row r="567">
@@ -9392,7 +9392,7 @@
         <v>2003</v>
       </c>
       <c r="D567" t="n">
-        <v>86640000</v>
+        <v>1734470000</v>
       </c>
     </row>
     <row r="568">
@@ -9406,7 +9406,7 @@
         <v>2004</v>
       </c>
       <c r="D568" t="n">
-        <v>151990000</v>
+        <v>1367840000</v>
       </c>
     </row>
     <row r="569">
@@ -9420,7 +9420,7 @@
         <v>2005</v>
       </c>
       <c r="D569" t="n">
-        <v>131600000</v>
+        <v>983220000</v>
       </c>
     </row>
     <row r="570">
@@ -9434,7 +9434,7 @@
         <v>2006</v>
       </c>
       <c r="D570" t="n">
-        <v>299530000</v>
+        <v>517340000</v>
       </c>
     </row>
     <row r="571">
@@ -9448,7 +9448,7 @@
         <v>2007</v>
       </c>
       <c r="D571" t="n">
-        <v>277350000</v>
+        <v>459890000</v>
       </c>
     </row>
     <row r="572">
@@ -9462,7 +9462,7 @@
         <v>2008</v>
       </c>
       <c r="D572" t="n">
-        <v>363220000</v>
+        <v>608710000</v>
       </c>
     </row>
     <row r="573">
@@ -9476,7 +9476,7 @@
         <v>2009</v>
       </c>
       <c r="D573" t="n">
-        <v>947050000</v>
+        <v>1092220000</v>
       </c>
     </row>
     <row r="574">
@@ -9490,7 +9490,7 @@
         <v>2010</v>
       </c>
       <c r="D574" t="n">
-        <v>343020000</v>
+        <v>978060000</v>
       </c>
     </row>
     <row r="575">
@@ -9504,7 +9504,7 @@
         <v>2011</v>
       </c>
       <c r="D575" t="n">
-        <v>377230000</v>
+        <v>851060000</v>
       </c>
     </row>
     <row r="576">
@@ -9518,7 +9518,7 @@
         <v>2012</v>
       </c>
       <c r="D576" t="n">
-        <v>291720000</v>
+        <v>932510000</v>
       </c>
     </row>
     <row r="577">
@@ -9532,7 +9532,7 @@
         <v>1990</v>
       </c>
       <c r="D577" t="n">
-        <v>495020000</v>
+        <v>2763070000</v>
       </c>
     </row>
     <row r="578">
@@ -9546,7 +9546,7 @@
         <v>1991</v>
       </c>
       <c r="D578" t="n">
-        <v>442670000</v>
+        <v>1977660000</v>
       </c>
     </row>
     <row r="579">
@@ -9560,7 +9560,7 @@
         <v>1992</v>
       </c>
       <c r="D579" t="n">
-        <v>507120000</v>
+        <v>2582830000</v>
       </c>
     </row>
     <row r="580">
@@ -9574,7 +9574,7 @@
         <v>1993</v>
       </c>
       <c r="D580" t="n">
-        <v>489180000</v>
+        <v>3915630000</v>
       </c>
     </row>
     <row r="581">
@@ -9588,7 +9588,7 @@
         <v>1994</v>
       </c>
       <c r="D581" t="n">
-        <v>557160000</v>
+        <v>4833930000</v>
       </c>
     </row>
     <row r="582">
@@ -9602,7 +9602,7 @@
         <v>1995</v>
       </c>
       <c r="D582" t="n">
-        <v>359130000</v>
+        <v>3342200000</v>
       </c>
     </row>
     <row r="583">
@@ -9616,7 +9616,7 @@
         <v>1996</v>
       </c>
       <c r="D583" t="n">
-        <v>453100000</v>
+        <v>4830800000</v>
       </c>
     </row>
     <row r="584">
@@ -9630,7 +9630,7 @@
         <v>1997</v>
       </c>
       <c r="D584" t="n">
-        <v>419480000</v>
+        <v>8561590000</v>
       </c>
     </row>
     <row r="585">
@@ -9644,7 +9644,7 @@
         <v>1998</v>
       </c>
       <c r="D585" t="n">
-        <v>324370000</v>
+        <v>7423230000</v>
       </c>
     </row>
     <row r="586">
@@ -9658,7 +9658,7 @@
         <v>1999</v>
       </c>
       <c r="D586" t="n">
-        <v>336720000</v>
+        <v>6271000000</v>
       </c>
     </row>
     <row r="587">
@@ -9672,7 +9672,7 @@
         <v>2000</v>
       </c>
       <c r="D587" t="n">
-        <v>260830000</v>
+        <v>9183900000</v>
       </c>
     </row>
     <row r="588">
@@ -9686,7 +9686,7 @@
         <v>2001</v>
       </c>
       <c r="D588" t="n">
-        <v>475070000</v>
+        <v>5776830000</v>
       </c>
     </row>
     <row r="589">
@@ -9700,7 +9700,7 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>879680000</v>
+        <v>4769350000</v>
       </c>
     </row>
     <row r="590">
@@ -9714,7 +9714,7 @@
         <v>2003</v>
       </c>
       <c r="D590" t="n">
-        <v>1734470000</v>
+        <v>3944940000</v>
       </c>
     </row>
     <row r="591">
@@ -9728,7 +9728,7 @@
         <v>2004</v>
       </c>
       <c r="D591" t="n">
-        <v>1367840000</v>
+        <v>5310680000</v>
       </c>
     </row>
     <row r="592">
@@ -9742,7 +9742,7 @@
         <v>2005</v>
       </c>
       <c r="D592" t="n">
-        <v>983220000</v>
+        <v>10479690000</v>
       </c>
     </row>
     <row r="593">
@@ -9756,7 +9756,7 @@
         <v>2006</v>
       </c>
       <c r="D593" t="n">
-        <v>517340000</v>
+        <v>7604040000</v>
       </c>
     </row>
     <row r="594">
@@ -9770,7 +9770,7 @@
         <v>2007</v>
       </c>
       <c r="D594" t="n">
-        <v>459890000</v>
+        <v>8350250000</v>
       </c>
     </row>
     <row r="595">
@@ -9784,7 +9784,7 @@
         <v>2008</v>
       </c>
       <c r="D595" t="n">
-        <v>608710000</v>
+        <v>16239300000</v>
       </c>
     </row>
     <row r="596">
@@ -9798,7 +9798,7 @@
         <v>2009</v>
       </c>
       <c r="D596" t="n">
-        <v>1092220000</v>
+        <v>17943510000</v>
       </c>
     </row>
     <row r="597">
@@ -9812,7 +9812,7 @@
         <v>2010</v>
       </c>
       <c r="D597" t="n">
-        <v>978060000</v>
+        <v>16730980000</v>
       </c>
     </row>
     <row r="598">
@@ -9826,7 +9826,7 @@
         <v>2011</v>
       </c>
       <c r="D598" t="n">
-        <v>851060000</v>
+        <v>21108170000</v>
       </c>
     </row>
     <row r="599">
@@ -9840,7 +9840,7 @@
         <v>2012</v>
       </c>
       <c r="D599" t="n">
-        <v>932510000</v>
+        <v>34950340000</v>
       </c>
     </row>
     <row r="600">
@@ -9854,7 +9854,7 @@
         <v>1990</v>
       </c>
       <c r="D600" t="n">
-        <v>2763070000</v>
+        <v>30602770000</v>
       </c>
     </row>
     <row r="601">
@@ -9868,7 +9868,7 @@
         <v>1991</v>
       </c>
       <c r="D601" t="n">
-        <v>1977660000</v>
+        <v>29164210000</v>
       </c>
     </row>
     <row r="602">
@@ -9882,7 +9882,7 @@
         <v>1992</v>
       </c>
       <c r="D602" t="n">
-        <v>2582830000</v>
+        <v>53132190000</v>
       </c>
     </row>
     <row r="603">
@@ -9896,7 +9896,7 @@
         <v>1993</v>
       </c>
       <c r="D603" t="n">
-        <v>3915630000</v>
+        <v>55880570000</v>
       </c>
     </row>
     <row r="604">
@@ -9910,7 +9910,7 @@
         <v>1994</v>
       </c>
       <c r="D604" t="n">
-        <v>4833930000</v>
+        <v>78563240000</v>
       </c>
     </row>
     <row r="605">
@@ -9924,7 +9924,7 @@
         <v>1995</v>
       </c>
       <c r="D605" t="n">
-        <v>3342200000</v>
+        <v>109304000000</v>
       </c>
     </row>
     <row r="606">
@@ -9938,7 +9938,7 @@
         <v>1996</v>
       </c>
       <c r="D606" t="n">
-        <v>4830800000</v>
+        <v>91923610000</v>
       </c>
     </row>
     <row r="607">
@@ -9952,7 +9952,7 @@
         <v>1997</v>
       </c>
       <c r="D607" t="n">
-        <v>8561590000</v>
+        <v>126398000000</v>
       </c>
     </row>
     <row r="608">
@@ -9966,7 +9966,7 @@
         <v>1998</v>
       </c>
       <c r="D608" t="n">
-        <v>7423230000</v>
+        <v>78316200000</v>
       </c>
     </row>
     <row r="609">
@@ -9980,7 +9980,7 @@
         <v>1999</v>
       </c>
       <c r="D609" t="n">
-        <v>6271000000</v>
+        <v>109793000000</v>
       </c>
     </row>
     <row r="610">
@@ -9994,7 +9994,7 @@
         <v>2000</v>
       </c>
       <c r="D610" t="n">
-        <v>9183900000</v>
+        <v>115648000000</v>
       </c>
     </row>
     <row r="611">
@@ -10008,7 +10008,7 @@
         <v>2001</v>
       </c>
       <c r="D611" t="n">
-        <v>5776830000</v>
+        <v>177890000000</v>
       </c>
     </row>
     <row r="612">
@@ -10022,7 +10022,7 @@
         <v>2002</v>
       </c>
       <c r="D612" t="n">
-        <v>4769350000</v>
+        <v>134664000000</v>
       </c>
     </row>
     <row r="613">
@@ -10036,7 +10036,7 @@
         <v>2003</v>
       </c>
       <c r="D613" t="n">
-        <v>3944940000</v>
+        <v>198159000000</v>
       </c>
     </row>
     <row r="614">
@@ -10050,7 +10050,7 @@
         <v>2004</v>
       </c>
       <c r="D614" t="n">
-        <v>5310680000</v>
+        <v>211582000000</v>
       </c>
     </row>
     <row r="615">
@@ -10064,7 +10064,7 @@
         <v>2005</v>
       </c>
       <c r="D615" t="n">
-        <v>10479690000</v>
+        <v>254806000000</v>
       </c>
     </row>
     <row r="616">
@@ -10078,7 +10078,7 @@
         <v>2006</v>
       </c>
       <c r="D616" t="n">
-        <v>7604040000</v>
+        <v>281623000000</v>
       </c>
     </row>
     <row r="617">
@@ -10092,7 +10092,7 @@
         <v>2007</v>
       </c>
       <c r="D617" t="n">
-        <v>8350250000</v>
+        <v>262556000000</v>
       </c>
     </row>
     <row r="618">
@@ -10106,7 +10106,7 @@
         <v>2008</v>
       </c>
       <c r="D618" t="n">
-        <v>16239300000</v>
+        <v>207232000000</v>
       </c>
     </row>
     <row r="619">
@@ -10120,7 +10120,7 @@
         <v>2009</v>
       </c>
       <c r="D619" t="n">
-        <v>17943510000</v>
+        <v>298859000000</v>
       </c>
     </row>
     <row r="620">
@@ -10134,7 +10134,7 @@
         <v>2010</v>
       </c>
       <c r="D620" t="n">
-        <v>16730980000</v>
+        <v>373030000000</v>
       </c>
     </row>
     <row r="621">
@@ -10148,7 +10148,7 @@
         <v>2011</v>
       </c>
       <c r="D621" t="n">
-        <v>21108170000</v>
+        <v>372132000000</v>
       </c>
     </row>
     <row r="622">
@@ -10162,7 +10162,7 @@
         <v>2012</v>
       </c>
       <c r="D622" t="n">
-        <v>34950340000</v>
+        <v>292175000000</v>
       </c>
     </row>
     <row r="623">
@@ -10176,7 +10176,7 @@
         <v>1990</v>
       </c>
       <c r="D623" t="n">
-        <v>30602770000</v>
+        <v>8756050000</v>
       </c>
     </row>
     <row r="624">
@@ -10190,7 +10190,7 @@
         <v>1991</v>
       </c>
       <c r="D624" t="n">
-        <v>29164210000</v>
+        <v>8859130000</v>
       </c>
     </row>
     <row r="625">
@@ -10204,7 +10204,7 @@
         <v>1992</v>
       </c>
       <c r="D625" t="n">
-        <v>53132190000</v>
+        <v>11597540000</v>
       </c>
     </row>
     <row r="626">
@@ -10218,7 +10218,7 @@
         <v>1993</v>
       </c>
       <c r="D626" t="n">
-        <v>55880570000</v>
+        <v>11754010000</v>
       </c>
     </row>
     <row r="627">
@@ -10232,7 +10232,7 @@
         <v>1994</v>
       </c>
       <c r="D627" t="n">
-        <v>78563240000</v>
+        <v>16928760000</v>
       </c>
     </row>
     <row r="628">
@@ -10246,7 +10246,7 @@
         <v>1995</v>
       </c>
       <c r="D628" t="n">
-        <v>109304000000</v>
+        <v>13348710000</v>
       </c>
     </row>
     <row r="629">
@@ -10260,7 +10260,7 @@
         <v>1996</v>
       </c>
       <c r="D629" t="n">
-        <v>91923610000</v>
+        <v>16886990000</v>
       </c>
     </row>
     <row r="630">
@@ -10274,7 +10274,7 @@
         <v>1997</v>
       </c>
       <c r="D630" t="n">
-        <v>126398000000</v>
+        <v>17937290000</v>
       </c>
     </row>
     <row r="631">
@@ -10288,7 +10288,7 @@
         <v>1998</v>
       </c>
       <c r="D631" t="n">
-        <v>78316200000</v>
+        <v>14379680000</v>
       </c>
     </row>
     <row r="632">
@@ -10302,7 +10302,7 @@
         <v>1999</v>
       </c>
       <c r="D632" t="n">
-        <v>109793000000</v>
+        <v>25315190000</v>
       </c>
     </row>
     <row r="633">
@@ -10316,7 +10316,7 @@
         <v>2000</v>
       </c>
       <c r="D633" t="n">
-        <v>115648000000</v>
+        <v>13488330000</v>
       </c>
     </row>
     <row r="634">
@@ -10330,7 +10330,7 @@
         <v>2001</v>
       </c>
       <c r="D634" t="n">
-        <v>177890000000</v>
+        <v>24660860000</v>
       </c>
     </row>
     <row r="635">
@@ -10344,7 +10344,7 @@
         <v>2002</v>
       </c>
       <c r="D635" t="n">
-        <v>134664000000</v>
+        <v>19255340000</v>
       </c>
     </row>
     <row r="636">
@@ -10358,7 +10358,7 @@
         <v>2003</v>
       </c>
       <c r="D636" t="n">
-        <v>198159000000</v>
+        <v>32812270000</v>
       </c>
     </row>
     <row r="637">
@@ -10372,7 +10372,7 @@
         <v>2004</v>
       </c>
       <c r="D637" t="n">
-        <v>211582000000</v>
+        <v>23657140000</v>
       </c>
     </row>
     <row r="638">
@@ -10386,7 +10386,7 @@
         <v>2005</v>
       </c>
       <c r="D638" t="n">
-        <v>254806000000</v>
+        <v>25144210000</v>
       </c>
     </row>
     <row r="639">
@@ -10400,7 +10400,7 @@
         <v>2006</v>
       </c>
       <c r="D639" t="n">
-        <v>281623000000</v>
+        <v>36149820000</v>
       </c>
     </row>
     <row r="640">
@@ -10414,7 +10414,7 @@
         <v>2007</v>
       </c>
       <c r="D640" t="n">
-        <v>262556000000</v>
+        <v>28319120000</v>
       </c>
     </row>
     <row r="641">
@@ -10428,7 +10428,7 @@
         <v>2008</v>
       </c>
       <c r="D641" t="n">
-        <v>207232000000</v>
+        <v>28254360000</v>
       </c>
     </row>
     <row r="642">
@@ -10442,7 +10442,7 @@
         <v>2009</v>
       </c>
       <c r="D642" t="n">
-        <v>298859000000</v>
+        <v>34873780000</v>
       </c>
     </row>
     <row r="643">
@@ -10456,7 +10456,7 @@
         <v>2010</v>
       </c>
       <c r="D643" t="n">
-        <v>373030000000</v>
+        <v>33565130000</v>
       </c>
     </row>
     <row r="644">
@@ -10470,7 +10470,7 @@
         <v>2011</v>
       </c>
       <c r="D644" t="n">
-        <v>372132000000</v>
+        <v>35647710000</v>
       </c>
     </row>
     <row r="645">
@@ -10484,7 +10484,7 @@
         <v>2012</v>
       </c>
       <c r="D645" t="n">
-        <v>292175000000</v>
+        <v>43028780000</v>
       </c>
     </row>
     <row r="646">
@@ -10498,7 +10498,7 @@
         <v>1990</v>
       </c>
       <c r="D646" t="n">
-        <v>8756050000</v>
+        <v>94600000</v>
       </c>
     </row>
     <row r="647">
@@ -10512,7 +10512,7 @@
         <v>1991</v>
       </c>
       <c r="D647" t="n">
-        <v>8859130000</v>
+        <v>117530000</v>
       </c>
     </row>
     <row r="648">
@@ -10526,7 +10526,7 @@
         <v>1992</v>
       </c>
       <c r="D648" t="n">
-        <v>11597540000</v>
+        <v>127810000</v>
       </c>
     </row>
     <row r="649">
@@ -10540,7 +10540,7 @@
         <v>1993</v>
       </c>
       <c r="D649" t="n">
-        <v>11754010000</v>
+        <v>116400000</v>
       </c>
     </row>
     <row r="650">
@@ -10554,7 +10554,7 @@
         <v>1994</v>
       </c>
       <c r="D650" t="n">
-        <v>16928760000</v>
+        <v>117270000</v>
       </c>
     </row>
     <row r="651">
@@ -10568,7 +10568,7 @@
         <v>1995</v>
       </c>
       <c r="D651" t="n">
-        <v>13348710000</v>
+        <v>82110000</v>
       </c>
     </row>
     <row r="652">
@@ -10582,7 +10582,7 @@
         <v>1996</v>
       </c>
       <c r="D652" t="n">
-        <v>16886990000</v>
+        <v>75110000</v>
       </c>
     </row>
     <row r="653">
@@ -10596,7 +10596,7 @@
         <v>1997</v>
       </c>
       <c r="D653" t="n">
-        <v>17937290000</v>
+        <v>71910000</v>
       </c>
     </row>
     <row r="654">
@@ -10610,7 +10610,7 @@
         <v>1998</v>
       </c>
       <c r="D654" t="n">
-        <v>14379680000</v>
+        <v>64420000</v>
       </c>
     </row>
     <row r="655">
@@ -10624,7 +10624,7 @@
         <v>1999</v>
       </c>
       <c r="D655" t="n">
-        <v>25315190000</v>
+        <v>52110000</v>
       </c>
     </row>
     <row r="656">
@@ -10638,7 +10638,7 @@
         <v>2000</v>
       </c>
       <c r="D656" t="n">
-        <v>13488330000</v>
+        <v>41810000</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>2001</v>
       </c>
       <c r="D657" t="n">
-        <v>24660860000</v>
+        <v>52250000</v>
       </c>
     </row>
     <row r="658">
@@ -10666,7 +10666,7 @@
         <v>2002</v>
       </c>
       <c r="D658" t="n">
-        <v>19255340000</v>
+        <v>56410000</v>
       </c>
     </row>
     <row r="659">
@@ -10680,7 +10680,7 @@
         <v>2003</v>
       </c>
       <c r="D659" t="n">
-        <v>32812270000</v>
+        <v>53320000</v>
       </c>
     </row>
     <row r="660">
@@ -10694,7 +10694,7 @@
         <v>2004</v>
       </c>
       <c r="D660" t="n">
-        <v>23657140000</v>
+        <v>40120000</v>
       </c>
     </row>
     <row r="661">
@@ -10708,7 +10708,7 @@
         <v>2005</v>
       </c>
       <c r="D661" t="n">
-        <v>25144210000</v>
+        <v>37520000</v>
       </c>
     </row>
     <row r="662">
@@ -10722,7 +10722,7 @@
         <v>2006</v>
       </c>
       <c r="D662" t="n">
-        <v>36149820000</v>
+        <v>43090000</v>
       </c>
     </row>
     <row r="663">
@@ -10736,7 +10736,7 @@
         <v>2007</v>
       </c>
       <c r="D663" t="n">
-        <v>28319120000</v>
+        <v>52900000</v>
       </c>
     </row>
     <row r="664">
@@ -10750,7 +10750,7 @@
         <v>2008</v>
       </c>
       <c r="D664" t="n">
-        <v>28254360000</v>
+        <v>55460000</v>
       </c>
     </row>
     <row r="665">
@@ -10764,7 +10764,7 @@
         <v>2009</v>
       </c>
       <c r="D665" t="n">
-        <v>34873780000</v>
+        <v>64260000</v>
       </c>
     </row>
     <row r="666">
@@ -10778,7 +10778,7 @@
         <v>2010</v>
       </c>
       <c r="D666" t="n">
-        <v>33565130000</v>
+        <v>91340000</v>
       </c>
     </row>
     <row r="667">
@@ -10792,7 +10792,7 @@
         <v>2011</v>
       </c>
       <c r="D667" t="n">
-        <v>35647710000</v>
+        <v>67350000</v>
       </c>
     </row>
     <row r="668">
@@ -10806,7 +10806,7 @@
         <v>2012</v>
       </c>
       <c r="D668" t="n">
-        <v>43028780000</v>
+        <v>140060000</v>
       </c>
     </row>
     <row r="669">
@@ -10820,7 +10820,7 @@
         <v>1990</v>
       </c>
       <c r="D669" t="n">
-        <v>94600000</v>
+        <v>1230720000</v>
       </c>
     </row>
     <row r="670">
@@ -10834,7 +10834,7 @@
         <v>1991</v>
       </c>
       <c r="D670" t="n">
-        <v>117530000</v>
+        <v>755850000</v>
       </c>
     </row>
     <row r="671">
@@ -10848,7 +10848,7 @@
         <v>1992</v>
       </c>
       <c r="D671" t="n">
-        <v>127810000</v>
+        <v>526380000</v>
       </c>
     </row>
     <row r="672">
@@ -10862,7 +10862,7 @@
         <v>1993</v>
       </c>
       <c r="D672" t="n">
-        <v>116400000</v>
+        <v>1676510000</v>
       </c>
     </row>
     <row r="673">
@@ -10876,7 +10876,7 @@
         <v>1994</v>
       </c>
       <c r="D673" t="n">
-        <v>117270000</v>
+        <v>1360160000</v>
       </c>
     </row>
     <row r="674">
@@ -10890,7 +10890,7 @@
         <v>1995</v>
       </c>
       <c r="D674" t="n">
-        <v>82110000</v>
+        <v>1708980000</v>
       </c>
     </row>
     <row r="675">
@@ -10904,7 +10904,7 @@
         <v>1996</v>
       </c>
       <c r="D675" t="n">
-        <v>75110000</v>
+        <v>868350000</v>
       </c>
     </row>
     <row r="676">
@@ -10918,7 +10918,7 @@
         <v>1997</v>
       </c>
       <c r="D676" t="n">
-        <v>71910000</v>
+        <v>1054430000</v>
       </c>
     </row>
     <row r="677">
@@ -10932,7 +10932,7 @@
         <v>1998</v>
       </c>
       <c r="D677" t="n">
-        <v>64420000</v>
+        <v>222710000</v>
       </c>
     </row>
     <row r="678">
@@ -10946,7 +10946,7 @@
         <v>1999</v>
       </c>
       <c r="D678" t="n">
-        <v>52110000</v>
+        <v>939960000</v>
       </c>
     </row>
     <row r="679">
@@ -10960,7 +10960,7 @@
         <v>2000</v>
       </c>
       <c r="D679" t="n">
-        <v>41810000</v>
+        <v>635520000</v>
       </c>
     </row>
     <row r="680">
@@ -10974,7 +10974,7 @@
         <v>2001</v>
       </c>
       <c r="D680" t="n">
-        <v>52250000</v>
+        <v>543810000</v>
       </c>
     </row>
     <row r="681">
@@ -10988,7 +10988,7 @@
         <v>2002</v>
       </c>
       <c r="D681" t="n">
-        <v>56410000</v>
+        <v>738660000</v>
       </c>
     </row>
     <row r="682">
@@ -11002,7 +11002,7 @@
         <v>2003</v>
       </c>
       <c r="D682" t="n">
-        <v>53320000</v>
+        <v>747000000</v>
       </c>
     </row>
     <row r="683">
@@ -11016,7 +11016,7 @@
         <v>2004</v>
       </c>
       <c r="D683" t="n">
-        <v>40120000</v>
+        <v>546820000</v>
       </c>
     </row>
     <row r="684">
@@ -11030,7 +11030,7 @@
         <v>2005</v>
       </c>
       <c r="D684" t="n">
-        <v>37520000</v>
+        <v>3590500000</v>
       </c>
     </row>
     <row r="685">
@@ -11044,7 +11044,7 @@
         <v>2006</v>
       </c>
       <c r="D685" t="n">
-        <v>43090000</v>
+        <v>2252790000</v>
       </c>
     </row>
     <row r="686">
@@ -11058,7 +11058,7 @@
         <v>2007</v>
       </c>
       <c r="D686" t="n">
-        <v>52900000</v>
+        <v>2205010000</v>
       </c>
     </row>
     <row r="687">
@@ -11072,7 +11072,7 @@
         <v>2008</v>
       </c>
       <c r="D687" t="n">
-        <v>55460000</v>
+        <v>2806840000</v>
       </c>
     </row>
     <row r="688">
@@ -11086,7 +11086,7 @@
         <v>2009</v>
       </c>
       <c r="D688" t="n">
-        <v>64260000</v>
+        <v>2849320000</v>
       </c>
     </row>
     <row r="689">
@@ -11100,7 +11100,7 @@
         <v>2010</v>
       </c>
       <c r="D689" t="n">
-        <v>91340000</v>
+        <v>4075710000</v>
       </c>
     </row>
     <row r="690">
@@ -11114,7 +11114,7 @@
         <v>2011</v>
       </c>
       <c r="D690" t="n">
-        <v>67350000</v>
+        <v>2868810000</v>
       </c>
     </row>
     <row r="691">
@@ -11128,7 +11128,7 @@
         <v>2012</v>
       </c>
       <c r="D691" t="n">
-        <v>140060000</v>
+        <v>3751330000</v>
       </c>
     </row>
     <row r="692">
@@ -11142,7 +11142,7 @@
         <v>1990</v>
       </c>
       <c r="D692" t="n">
-        <v>1230720000</v>
+        <v>70180000</v>
       </c>
     </row>
     <row r="693">
@@ -11156,7 +11156,7 @@
         <v>1991</v>
       </c>
       <c r="D693" t="n">
-        <v>755850000</v>
+        <v>37700000</v>
       </c>
     </row>
     <row r="694">
@@ -11170,7 +11170,7 @@
         <v>1992</v>
       </c>
       <c r="D694" t="n">
-        <v>526380000</v>
+        <v>67160000</v>
       </c>
     </row>
     <row r="695">
@@ -11184,7 +11184,7 @@
         <v>1993</v>
       </c>
       <c r="D695" t="n">
-        <v>1676510000</v>
+        <v>66780000</v>
       </c>
     </row>
     <row r="696">
@@ -11198,7 +11198,7 @@
         <v>1994</v>
       </c>
       <c r="D696" t="n">
-        <v>1360160000</v>
+        <v>28010000</v>
       </c>
     </row>
     <row r="697">
@@ -11212,7 +11212,7 @@
         <v>1995</v>
       </c>
       <c r="D697" t="n">
-        <v>1708980000</v>
+        <v>22320000</v>
       </c>
     </row>
     <row r="698">
@@ -11226,7 +11226,7 @@
         <v>1996</v>
       </c>
       <c r="D698" t="n">
-        <v>868350000</v>
+        <v>17720000</v>
       </c>
     </row>
     <row r="699">
@@ -11240,7 +11240,7 @@
         <v>1997</v>
       </c>
       <c r="D699" t="n">
-        <v>1054430000</v>
+        <v>23510000</v>
       </c>
     </row>
     <row r="700">
@@ -11254,7 +11254,7 @@
         <v>1998</v>
       </c>
       <c r="D700" t="n">
-        <v>222710000</v>
+        <v>16030000</v>
       </c>
     </row>
     <row r="701">
@@ -11268,7 +11268,7 @@
         <v>1999</v>
       </c>
       <c r="D701" t="n">
-        <v>939960000</v>
+        <v>11480000</v>
       </c>
     </row>
     <row r="702">
@@ -11282,7 +11282,7 @@
         <v>2000</v>
       </c>
       <c r="D702" t="n">
-        <v>635520000</v>
+        <v>9530000</v>
       </c>
     </row>
     <row r="703">
@@ -11296,7 +11296,7 @@
         <v>2001</v>
       </c>
       <c r="D703" t="n">
-        <v>543810000</v>
+        <v>70750000</v>
       </c>
     </row>
     <row r="704">
@@ -11310,7 +11310,7 @@
         <v>2002</v>
       </c>
       <c r="D704" t="n">
-        <v>738660000</v>
+        <v>9190000</v>
       </c>
     </row>
     <row r="705">
@@ -11324,7 +11324,7 @@
         <v>2003</v>
       </c>
       <c r="D705" t="n">
-        <v>747000000</v>
+        <v>10580000</v>
       </c>
     </row>
     <row r="706">
@@ -11338,7 +11338,7 @@
         <v>2004</v>
       </c>
       <c r="D706" t="n">
-        <v>546820000</v>
+        <v>13700000</v>
       </c>
     </row>
     <row r="707">
@@ -11352,7 +11352,7 @@
         <v>2005</v>
       </c>
       <c r="D707" t="n">
-        <v>3590500000</v>
+        <v>11770000</v>
       </c>
     </row>
     <row r="708">
@@ -11366,7 +11366,7 @@
         <v>2006</v>
       </c>
       <c r="D708" t="n">
-        <v>2252790000</v>
+        <v>56480000</v>
       </c>
     </row>
     <row r="709">
@@ -11380,7 +11380,7 @@
         <v>2007</v>
       </c>
       <c r="D709" t="n">
-        <v>2205010000</v>
+        <v>15610000</v>
       </c>
     </row>
     <row r="710">
@@ -11394,7 +11394,7 @@
         <v>2008</v>
       </c>
       <c r="D710" t="n">
-        <v>2806840000</v>
+        <v>10980000</v>
       </c>
     </row>
     <row r="711">
@@ -11408,7 +11408,7 @@
         <v>2009</v>
       </c>
       <c r="D711" t="n">
-        <v>2849320000</v>
+        <v>10720000</v>
       </c>
     </row>
     <row r="712">
@@ -11422,7 +11422,7 @@
         <v>2010</v>
       </c>
       <c r="D712" t="n">
-        <v>4075710000</v>
+        <v>26700000</v>
       </c>
     </row>
     <row r="713">
@@ -11436,7 +11436,7 @@
         <v>2011</v>
       </c>
       <c r="D713" t="n">
-        <v>2868810000</v>
+        <v>32180000</v>
       </c>
     </row>
     <row r="714">
@@ -11450,7 +11450,7 @@
         <v>2012</v>
       </c>
       <c r="D714" t="n">
-        <v>3751330000</v>
+        <v>29450000</v>
       </c>
     </row>
     <row r="715">
@@ -11464,7 +11464,7 @@
         <v>1990</v>
       </c>
       <c r="D715" t="n">
-        <v>70180000</v>
+        <v>1161780000</v>
       </c>
     </row>
     <row r="716">
@@ -11478,7 +11478,7 @@
         <v>1991</v>
       </c>
       <c r="D716" t="n">
-        <v>37700000</v>
+        <v>1399540000</v>
       </c>
     </row>
     <row r="717">
@@ -11492,7 +11492,7 @@
         <v>1992</v>
       </c>
       <c r="D717" t="n">
-        <v>67160000</v>
+        <v>840400000</v>
       </c>
     </row>
     <row r="718">
@@ -11506,7 +11506,7 @@
         <v>1993</v>
       </c>
       <c r="D718" t="n">
-        <v>66780000</v>
+        <v>1145980000</v>
       </c>
     </row>
     <row r="719">
@@ -11520,7 +11520,7 @@
         <v>1994</v>
       </c>
       <c r="D719" t="n">
-        <v>28010000</v>
+        <v>762850000</v>
       </c>
     </row>
     <row r="720">
@@ -11534,7 +11534,7 @@
         <v>1995</v>
       </c>
       <c r="D720" t="n">
-        <v>22320000</v>
+        <v>1357570000</v>
       </c>
     </row>
     <row r="721">
@@ -11548,7 +11548,7 @@
         <v>1996</v>
       </c>
       <c r="D721" t="n">
-        <v>17720000</v>
+        <v>1549390000</v>
       </c>
     </row>
     <row r="722">
@@ -11562,7 +11562,7 @@
         <v>1997</v>
       </c>
       <c r="D722" t="n">
-        <v>23510000</v>
+        <v>1805850000</v>
       </c>
     </row>
     <row r="723">
@@ -11576,7 +11576,7 @@
         <v>1998</v>
       </c>
       <c r="D723" t="n">
-        <v>16030000</v>
+        <v>2237960000</v>
       </c>
     </row>
     <row r="724">
@@ -11590,7 +11590,7 @@
         <v>1999</v>
       </c>
       <c r="D724" t="n">
-        <v>11480000</v>
+        <v>2166660000</v>
       </c>
     </row>
     <row r="725">
@@ -11604,7 +11604,7 @@
         <v>2000</v>
       </c>
       <c r="D725" t="n">
-        <v>9530000</v>
+        <v>2686380000</v>
       </c>
     </row>
     <row r="726">
@@ -11618,7 +11618,7 @@
         <v>2001</v>
       </c>
       <c r="D726" t="n">
-        <v>70750000</v>
+        <v>2022970000</v>
       </c>
     </row>
     <row r="727">
@@ -11632,7 +11632,7 @@
         <v>2002</v>
       </c>
       <c r="D727" t="n">
-        <v>9190000</v>
+        <v>1941680000</v>
       </c>
     </row>
     <row r="728">
@@ -11646,7 +11646,7 @@
         <v>2003</v>
       </c>
       <c r="D728" t="n">
-        <v>10580000</v>
+        <v>3321140000</v>
       </c>
     </row>
     <row r="729">
@@ -11660,7 +11660,7 @@
         <v>2004</v>
       </c>
       <c r="D729" t="n">
-        <v>13700000</v>
+        <v>2836490000</v>
       </c>
     </row>
     <row r="730">
@@ -11674,7 +11674,7 @@
         <v>2005</v>
       </c>
       <c r="D730" t="n">
-        <v>11770000</v>
+        <v>3898000000</v>
       </c>
     </row>
     <row r="731">
@@ -11688,7 +11688,7 @@
         <v>2006</v>
       </c>
       <c r="D731" t="n">
-        <v>56480000</v>
+        <v>2949420000</v>
       </c>
     </row>
     <row r="732">
@@ -11702,7 +11702,7 @@
         <v>2007</v>
       </c>
       <c r="D732" t="n">
-        <v>15610000</v>
+        <v>4760860000</v>
       </c>
     </row>
     <row r="733">
@@ -11716,7 +11716,7 @@
         <v>2008</v>
       </c>
       <c r="D733" t="n">
-        <v>10980000</v>
+        <v>5624760000</v>
       </c>
     </row>
     <row r="734">
@@ -11730,7 +11730,7 @@
         <v>2009</v>
       </c>
       <c r="D734" t="n">
-        <v>10720000</v>
+        <v>4812960000</v>
       </c>
     </row>
     <row r="735">
@@ -11744,7 +11744,7 @@
         <v>2010</v>
       </c>
       <c r="D735" t="n">
-        <v>26700000</v>
+        <v>4606500000</v>
       </c>
     </row>
     <row r="736">
@@ -11758,7 +11758,7 @@
         <v>2011</v>
       </c>
       <c r="D736" t="n">
-        <v>32180000</v>
+        <v>4475700000</v>
       </c>
     </row>
     <row r="737">
@@ -11772,7 +11772,7 @@
         <v>2012</v>
       </c>
       <c r="D737" t="n">
-        <v>29450000</v>
+        <v>6868960000</v>
       </c>
     </row>
     <row r="738">
@@ -11786,7 +11786,7 @@
         <v>1990</v>
       </c>
       <c r="D738" t="n">
-        <v>1161780000</v>
+        <v>3733220000</v>
       </c>
     </row>
     <row r="739">
@@ -11800,7 +11800,7 @@
         <v>1991</v>
       </c>
       <c r="D739" t="n">
-        <v>1399540000</v>
+        <v>2769690000</v>
       </c>
     </row>
     <row r="740">
@@ -11814,7 +11814,7 @@
         <v>1992</v>
       </c>
       <c r="D740" t="n">
-        <v>840400000</v>
+        <v>2847020000</v>
       </c>
     </row>
     <row r="741">
@@ -11828,7 +11828,7 @@
         <v>1993</v>
       </c>
       <c r="D741" t="n">
-        <v>1145980000</v>
+        <v>2639770000</v>
       </c>
     </row>
     <row r="742">
@@ -11842,7 +11842,7 @@
         <v>1994</v>
       </c>
       <c r="D742" t="n">
-        <v>762850000</v>
+        <v>4213040000</v>
       </c>
     </row>
     <row r="743">
@@ -11856,7 +11856,7 @@
         <v>1995</v>
       </c>
       <c r="D743" t="n">
-        <v>1357570000</v>
+        <v>3609870000</v>
       </c>
     </row>
     <row r="744">
@@ -11870,7 +11870,7 @@
         <v>1996</v>
       </c>
       <c r="D744" t="n">
-        <v>1549390000</v>
+        <v>6121830000</v>
       </c>
     </row>
     <row r="745">
@@ -11884,7 +11884,7 @@
         <v>1997</v>
       </c>
       <c r="D745" t="n">
-        <v>1805850000</v>
+        <v>3412210000</v>
       </c>
     </row>
     <row r="746">
@@ -11898,7 +11898,7 @@
         <v>1998</v>
       </c>
       <c r="D746" t="n">
-        <v>2237960000</v>
+        <v>2608930000</v>
       </c>
     </row>
     <row r="747">
@@ -11912,7 +11912,7 @@
         <v>1999</v>
       </c>
       <c r="D747" t="n">
-        <v>2166660000</v>
+        <v>2475350000</v>
       </c>
     </row>
     <row r="748">
@@ -11926,7 +11926,7 @@
         <v>2000</v>
       </c>
       <c r="D748" t="n">
-        <v>2686380000</v>
+        <v>1328730000</v>
       </c>
     </row>
     <row r="749">
@@ -11940,7 +11940,7 @@
         <v>2001</v>
       </c>
       <c r="D749" t="n">
-        <v>2022970000</v>
+        <v>1031480000</v>
       </c>
     </row>
     <row r="750">
@@ -11954,7 +11954,7 @@
         <v>2002</v>
       </c>
       <c r="D750" t="n">
-        <v>1941680000</v>
+        <v>3364350000</v>
       </c>
     </row>
     <row r="751">
@@ -11968,7 +11968,7 @@
         <v>2003</v>
       </c>
       <c r="D751" t="n">
-        <v>3321140000</v>
+        <v>1083190000</v>
       </c>
     </row>
     <row r="752">
@@ -11982,7 +11982,7 @@
         <v>2004</v>
       </c>
       <c r="D752" t="n">
-        <v>2836490000</v>
+        <v>825570000</v>
       </c>
     </row>
     <row r="753">
@@ -11996,7 +11996,7 @@
         <v>2005</v>
       </c>
       <c r="D753" t="n">
-        <v>3898000000</v>
+        <v>856180000</v>
       </c>
     </row>
     <row r="754">
@@ -12010,7 +12010,7 @@
         <v>2006</v>
       </c>
       <c r="D754" t="n">
-        <v>2949420000</v>
+        <v>1063310000</v>
       </c>
     </row>
     <row r="755">
@@ -12024,7 +12024,7 @@
         <v>2007</v>
       </c>
       <c r="D755" t="n">
-        <v>4760860000</v>
+        <v>933500000</v>
       </c>
     </row>
     <row r="756">
@@ -12038,7 +12038,7 @@
         <v>2008</v>
       </c>
       <c r="D756" t="n">
-        <v>5624760000</v>
+        <v>1952340000</v>
       </c>
     </row>
     <row r="757">
@@ -12052,7 +12052,7 @@
         <v>2009</v>
       </c>
       <c r="D757" t="n">
-        <v>4812960000</v>
+        <v>3822860000</v>
       </c>
     </row>
     <row r="758">
@@ -12066,7 +12066,7 @@
         <v>2010</v>
       </c>
       <c r="D758" t="n">
-        <v>4606500000</v>
+        <v>2505150000</v>
       </c>
     </row>
     <row r="759">
@@ -12080,7 +12080,7 @@
         <v>2011</v>
       </c>
       <c r="D759" t="n">
-        <v>4475700000</v>
+        <v>3083360000</v>
       </c>
     </row>
     <row r="760">
@@ -12094,7 +12094,7 @@
         <v>2012</v>
       </c>
       <c r="D760" t="n">
-        <v>6868960000</v>
+        <v>6114880000</v>
       </c>
     </row>
     <row r="761">
@@ -50766,73 +50766,73 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>3733220000</v>
+        <v>117920000</v>
       </c>
       <c r="D22" t="n">
-        <v>2769690000</v>
+        <v>144000000</v>
       </c>
       <c r="E22" t="n">
-        <v>2847020000</v>
+        <v>322190000</v>
       </c>
       <c r="F22" t="n">
-        <v>2639770000</v>
+        <v>503980000</v>
       </c>
       <c r="G22" t="n">
-        <v>4213040000</v>
+        <v>568990000</v>
       </c>
       <c r="H22" t="n">
-        <v>3609870000</v>
+        <v>809790000</v>
       </c>
       <c r="I22" t="n">
-        <v>6121830000</v>
+        <v>777680000</v>
       </c>
       <c r="J22" t="n">
-        <v>3412210000</v>
+        <v>829910000</v>
       </c>
       <c r="K22" t="n">
-        <v>2608930000</v>
+        <v>887770000</v>
       </c>
       <c r="L22" t="n">
-        <v>2475350000</v>
+        <v>842740000</v>
       </c>
       <c r="M22" t="n">
-        <v>1328730000</v>
+        <v>1127240000</v>
       </c>
       <c r="N22" t="n">
-        <v>1031480000</v>
+        <v>1044190000</v>
       </c>
       <c r="O22" t="n">
-        <v>3364350000</v>
+        <v>1135850000</v>
       </c>
       <c r="P22" t="n">
-        <v>1083190000</v>
+        <v>1077640000</v>
       </c>
       <c r="Q22" t="n">
-        <v>825570000</v>
+        <v>1255350000</v>
       </c>
       <c r="R22" t="n">
-        <v>856180000</v>
+        <v>1301070000</v>
       </c>
       <c r="S22" t="n">
-        <v>1063310000</v>
+        <v>1596930000</v>
       </c>
       <c r="T22" t="n">
-        <v>933500000</v>
+        <v>1724730000</v>
       </c>
       <c r="U22" t="n">
-        <v>1952340000</v>
+        <v>2426070000</v>
       </c>
       <c r="V22" t="n">
-        <v>3822860000</v>
+        <v>2051650000</v>
       </c>
       <c r="W22" t="n">
-        <v>2505150000</v>
+        <v>1901780000</v>
       </c>
       <c r="X22" t="n">
-        <v>3083360000</v>
+        <v>2451820000</v>
       </c>
       <c r="Y22" t="n">
-        <v>6114880000</v>
+        <v>3427690000</v>
       </c>
     </row>
     <row r="23">
@@ -50843,73 +50843,73 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>117920000</v>
+        <v>2062220000</v>
       </c>
       <c r="D23" t="n">
-        <v>144000000</v>
+        <v>1455750000</v>
       </c>
       <c r="E23" t="n">
-        <v>322190000</v>
+        <v>1886410000</v>
       </c>
       <c r="F23" t="n">
-        <v>503980000</v>
+        <v>1544180000</v>
       </c>
       <c r="G23" t="n">
-        <v>568990000</v>
+        <v>1668010000</v>
       </c>
       <c r="H23" t="n">
-        <v>809790000</v>
+        <v>1274440000</v>
       </c>
       <c r="I23" t="n">
-        <v>777680000</v>
+        <v>1151770000</v>
       </c>
       <c r="J23" t="n">
-        <v>829910000</v>
+        <v>2159450000</v>
       </c>
       <c r="K23" t="n">
-        <v>887770000</v>
+        <v>1748930000</v>
       </c>
       <c r="L23" t="n">
-        <v>842740000</v>
+        <v>1373940000</v>
       </c>
       <c r="M23" t="n">
-        <v>1127240000</v>
+        <v>1105640000</v>
       </c>
       <c r="N23" t="n">
-        <v>1044190000</v>
+        <v>1264040000</v>
       </c>
       <c r="O23" t="n">
-        <v>1135850000</v>
+        <v>2009190000</v>
       </c>
       <c r="P23" t="n">
-        <v>1077640000</v>
+        <v>2253420000</v>
       </c>
       <c r="Q23" t="n">
-        <v>1255350000</v>
+        <v>1893680000</v>
       </c>
       <c r="R23" t="n">
-        <v>1301070000</v>
+        <v>1205930000</v>
       </c>
       <c r="S23" t="n">
-        <v>1596930000</v>
+        <v>4482690000</v>
       </c>
       <c r="T23" t="n">
-        <v>1724730000</v>
+        <v>2726900000</v>
       </c>
       <c r="U23" t="n">
-        <v>2426070000</v>
+        <v>1721560000</v>
       </c>
       <c r="V23" t="n">
-        <v>2051650000</v>
+        <v>1375250000</v>
       </c>
       <c r="W23" t="n">
-        <v>1901780000</v>
+        <v>1902500000</v>
       </c>
       <c r="X23" t="n">
-        <v>2451820000</v>
+        <v>1452210000</v>
       </c>
       <c r="Y23" t="n">
-        <v>3427690000</v>
+        <v>1786660000</v>
       </c>
     </row>
     <row r="24">
@@ -50920,73 +50920,73 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>2062220000</v>
+        <v>268760000</v>
       </c>
       <c r="D24" t="n">
-        <v>1455750000</v>
+        <v>263680000</v>
       </c>
       <c r="E24" t="n">
-        <v>1886410000</v>
+        <v>308210000</v>
       </c>
       <c r="F24" t="n">
-        <v>1544180000</v>
+        <v>292960000</v>
       </c>
       <c r="G24" t="n">
-        <v>1668010000</v>
+        <v>348470000</v>
       </c>
       <c r="H24" t="n">
-        <v>1274440000</v>
+        <v>320450000</v>
       </c>
       <c r="I24" t="n">
-        <v>1151770000</v>
+        <v>323930000</v>
       </c>
       <c r="J24" t="n">
-        <v>2159450000</v>
+        <v>344020000</v>
       </c>
       <c r="K24" t="n">
-        <v>1748930000</v>
+        <v>402210000</v>
       </c>
       <c r="L24" t="n">
-        <v>1373940000</v>
+        <v>358490000</v>
       </c>
       <c r="M24" t="n">
-        <v>1105640000</v>
+        <v>424510000</v>
       </c>
       <c r="N24" t="n">
-        <v>1264040000</v>
+        <v>410590000</v>
       </c>
       <c r="O24" t="n">
-        <v>2009190000</v>
+        <v>316460000</v>
       </c>
       <c r="P24" t="n">
-        <v>2253420000</v>
+        <v>392690000</v>
       </c>
       <c r="Q24" t="n">
-        <v>1893680000</v>
+        <v>360910000</v>
       </c>
       <c r="R24" t="n">
-        <v>1205930000</v>
+        <v>543890000</v>
       </c>
       <c r="S24" t="n">
-        <v>4482690000</v>
+        <v>417020000</v>
       </c>
       <c r="T24" t="n">
-        <v>2726900000</v>
+        <v>465910000</v>
       </c>
       <c r="U24" t="n">
-        <v>1721560000</v>
+        <v>573810000</v>
       </c>
       <c r="V24" t="n">
-        <v>1375250000</v>
+        <v>701010000</v>
       </c>
       <c r="W24" t="n">
-        <v>1902500000</v>
+        <v>682810000</v>
       </c>
       <c r="X24" t="n">
-        <v>1452210000</v>
+        <v>658860000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1786660000</v>
+        <v>587590000</v>
       </c>
     </row>
     <row r="25">
@@ -50997,73 +50997,73 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>268760000</v>
+        <v>529650000</v>
       </c>
       <c r="D25" t="n">
-        <v>263680000</v>
+        <v>387840000</v>
       </c>
       <c r="E25" t="n">
-        <v>308210000</v>
+        <v>331070000</v>
       </c>
       <c r="F25" t="n">
-        <v>292960000</v>
+        <v>335050000</v>
       </c>
       <c r="G25" t="n">
-        <v>348470000</v>
+        <v>272040000</v>
       </c>
       <c r="H25" t="n">
-        <v>320450000</v>
+        <v>250910000</v>
       </c>
       <c r="I25" t="n">
-        <v>323930000</v>
+        <v>292320000</v>
       </c>
       <c r="J25" t="n">
-        <v>344020000</v>
+        <v>166310000</v>
       </c>
       <c r="K25" t="n">
-        <v>402210000</v>
+        <v>205970000</v>
       </c>
       <c r="L25" t="n">
-        <v>358490000</v>
+        <v>240640000</v>
       </c>
       <c r="M25" t="n">
-        <v>424510000</v>
+        <v>178060000</v>
       </c>
       <c r="N25" t="n">
-        <v>410590000</v>
+        <v>149280000</v>
       </c>
       <c r="O25" t="n">
-        <v>316460000</v>
+        <v>110340000</v>
       </c>
       <c r="P25" t="n">
-        <v>392690000</v>
+        <v>86640000</v>
       </c>
       <c r="Q25" t="n">
-        <v>360910000</v>
+        <v>151990000</v>
       </c>
       <c r="R25" t="n">
-        <v>543890000</v>
+        <v>131600000</v>
       </c>
       <c r="S25" t="n">
-        <v>417020000</v>
+        <v>299530000</v>
       </c>
       <c r="T25" t="n">
-        <v>465910000</v>
+        <v>277350000</v>
       </c>
       <c r="U25" t="n">
-        <v>573810000</v>
+        <v>363220000</v>
       </c>
       <c r="V25" t="n">
-        <v>701010000</v>
+        <v>947050000</v>
       </c>
       <c r="W25" t="n">
-        <v>682810000</v>
+        <v>343020000</v>
       </c>
       <c r="X25" t="n">
-        <v>658860000</v>
+        <v>377230000</v>
       </c>
       <c r="Y25" t="n">
-        <v>587590000</v>
+        <v>291720000</v>
       </c>
     </row>
     <row r="26">
@@ -51074,73 +51074,73 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>529650000</v>
+        <v>495020000</v>
       </c>
       <c r="D26" t="n">
-        <v>387840000</v>
+        <v>442670000</v>
       </c>
       <c r="E26" t="n">
-        <v>331070000</v>
+        <v>507120000</v>
       </c>
       <c r="F26" t="n">
-        <v>335050000</v>
+        <v>489180000</v>
       </c>
       <c r="G26" t="n">
-        <v>272040000</v>
+        <v>557160000</v>
       </c>
       <c r="H26" t="n">
-        <v>250910000</v>
+        <v>359130000</v>
       </c>
       <c r="I26" t="n">
-        <v>292320000</v>
+        <v>453100000</v>
       </c>
       <c r="J26" t="n">
-        <v>166310000</v>
+        <v>419480000</v>
       </c>
       <c r="K26" t="n">
-        <v>205970000</v>
+        <v>324370000</v>
       </c>
       <c r="L26" t="n">
-        <v>240640000</v>
+        <v>336720000</v>
       </c>
       <c r="M26" t="n">
-        <v>178060000</v>
+        <v>260830000</v>
       </c>
       <c r="N26" t="n">
-        <v>149280000</v>
+        <v>475070000</v>
       </c>
       <c r="O26" t="n">
-        <v>110340000</v>
+        <v>879680000</v>
       </c>
       <c r="P26" t="n">
-        <v>86640000</v>
+        <v>1734470000</v>
       </c>
       <c r="Q26" t="n">
-        <v>151990000</v>
+        <v>1367840000</v>
       </c>
       <c r="R26" t="n">
-        <v>131600000</v>
+        <v>983220000</v>
       </c>
       <c r="S26" t="n">
-        <v>299530000</v>
+        <v>517340000</v>
       </c>
       <c r="T26" t="n">
-        <v>277350000</v>
+        <v>459890000</v>
       </c>
       <c r="U26" t="n">
-        <v>363220000</v>
+        <v>608710000</v>
       </c>
       <c r="V26" t="n">
-        <v>947050000</v>
+        <v>1092220000</v>
       </c>
       <c r="W26" t="n">
-        <v>343020000</v>
+        <v>978060000</v>
       </c>
       <c r="X26" t="n">
-        <v>377230000</v>
+        <v>851060000</v>
       </c>
       <c r="Y26" t="n">
-        <v>291720000</v>
+        <v>932510000</v>
       </c>
     </row>
     <row r="27">
@@ -51151,73 +51151,73 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>495020000</v>
+        <v>2763070000</v>
       </c>
       <c r="D27" t="n">
-        <v>442670000</v>
+        <v>1977660000</v>
       </c>
       <c r="E27" t="n">
-        <v>507120000</v>
+        <v>2582830000</v>
       </c>
       <c r="F27" t="n">
-        <v>489180000</v>
+        <v>3915630000</v>
       </c>
       <c r="G27" t="n">
-        <v>557160000</v>
+        <v>4833930000</v>
       </c>
       <c r="H27" t="n">
-        <v>359130000</v>
+        <v>3342200000</v>
       </c>
       <c r="I27" t="n">
-        <v>453100000</v>
+        <v>4830800000</v>
       </c>
       <c r="J27" t="n">
-        <v>419480000</v>
+        <v>8561590000</v>
       </c>
       <c r="K27" t="n">
-        <v>324370000</v>
+        <v>7423230000</v>
       </c>
       <c r="L27" t="n">
-        <v>336720000</v>
+        <v>6271000000</v>
       </c>
       <c r="M27" t="n">
-        <v>260830000</v>
+        <v>9183900000</v>
       </c>
       <c r="N27" t="n">
-        <v>475070000</v>
+        <v>5776830000</v>
       </c>
       <c r="O27" t="n">
-        <v>879680000</v>
+        <v>4769350000</v>
       </c>
       <c r="P27" t="n">
-        <v>1734470000</v>
+        <v>3944940000</v>
       </c>
       <c r="Q27" t="n">
-        <v>1367840000</v>
+        <v>5310680000</v>
       </c>
       <c r="R27" t="n">
-        <v>983220000</v>
+        <v>10479690000</v>
       </c>
       <c r="S27" t="n">
-        <v>517340000</v>
+        <v>7604040000</v>
       </c>
       <c r="T27" t="n">
-        <v>459890000</v>
+        <v>8350250000</v>
       </c>
       <c r="U27" t="n">
-        <v>608710000</v>
+        <v>16239300000</v>
       </c>
       <c r="V27" t="n">
-        <v>1092220000</v>
+        <v>17943510000</v>
       </c>
       <c r="W27" t="n">
-        <v>978060000</v>
+        <v>16730980000</v>
       </c>
       <c r="X27" t="n">
-        <v>851060000</v>
+        <v>21108170000</v>
       </c>
       <c r="Y27" t="n">
-        <v>932510000</v>
+        <v>34950340000</v>
       </c>
     </row>
     <row r="28">
@@ -51228,73 +51228,73 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>2763070000</v>
+        <v>30602770000</v>
       </c>
       <c r="D28" t="n">
-        <v>1977660000</v>
+        <v>29164210000</v>
       </c>
       <c r="E28" t="n">
-        <v>2582830000</v>
+        <v>53132190000</v>
       </c>
       <c r="F28" t="n">
-        <v>3915630000</v>
+        <v>55880570000</v>
       </c>
       <c r="G28" t="n">
-        <v>4833930000</v>
+        <v>78563240000</v>
       </c>
       <c r="H28" t="n">
-        <v>3342200000</v>
+        <v>109304000000</v>
       </c>
       <c r="I28" t="n">
-        <v>4830800000</v>
+        <v>91923610000</v>
       </c>
       <c r="J28" t="n">
-        <v>8561590000</v>
+        <v>126398000000</v>
       </c>
       <c r="K28" t="n">
-        <v>7423230000</v>
+        <v>78316200000</v>
       </c>
       <c r="L28" t="n">
-        <v>6271000000</v>
+        <v>109793000000</v>
       </c>
       <c r="M28" t="n">
-        <v>9183900000</v>
+        <v>115648000000</v>
       </c>
       <c r="N28" t="n">
-        <v>5776830000</v>
+        <v>177890000000</v>
       </c>
       <c r="O28" t="n">
-        <v>4769350000</v>
+        <v>134664000000</v>
       </c>
       <c r="P28" t="n">
-        <v>3944940000</v>
+        <v>198159000000</v>
       </c>
       <c r="Q28" t="n">
-        <v>5310680000</v>
+        <v>211582000000</v>
       </c>
       <c r="R28" t="n">
-        <v>10479690000</v>
+        <v>254806000000</v>
       </c>
       <c r="S28" t="n">
-        <v>7604040000</v>
+        <v>281623000000</v>
       </c>
       <c r="T28" t="n">
-        <v>8350250000</v>
+        <v>262556000000</v>
       </c>
       <c r="U28" t="n">
-        <v>16239300000</v>
+        <v>207232000000</v>
       </c>
       <c r="V28" t="n">
-        <v>17943510000</v>
+        <v>298859000000</v>
       </c>
       <c r="W28" t="n">
-        <v>16730980000</v>
+        <v>373030000000</v>
       </c>
       <c r="X28" t="n">
-        <v>21108170000</v>
+        <v>372132000000</v>
       </c>
       <c r="Y28" t="n">
-        <v>34950340000</v>
+        <v>292175000000</v>
       </c>
     </row>
     <row r="29">
@@ -51305,73 +51305,73 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>30602770000</v>
+        <v>8756050000</v>
       </c>
       <c r="D29" t="n">
-        <v>29164210000</v>
+        <v>8859130000</v>
       </c>
       <c r="E29" t="n">
-        <v>53132190000</v>
+        <v>11597540000</v>
       </c>
       <c r="F29" t="n">
-        <v>55880570000</v>
+        <v>11754010000</v>
       </c>
       <c r="G29" t="n">
-        <v>78563240000</v>
+        <v>16928760000</v>
       </c>
       <c r="H29" t="n">
-        <v>109304000000</v>
+        <v>13348710000</v>
       </c>
       <c r="I29" t="n">
-        <v>91923610000</v>
+        <v>16886990000</v>
       </c>
       <c r="J29" t="n">
-        <v>126398000000</v>
+        <v>17937290000</v>
       </c>
       <c r="K29" t="n">
-        <v>78316200000</v>
+        <v>14379680000</v>
       </c>
       <c r="L29" t="n">
-        <v>109793000000</v>
+        <v>25315190000</v>
       </c>
       <c r="M29" t="n">
-        <v>115648000000</v>
+        <v>13488330000</v>
       </c>
       <c r="N29" t="n">
-        <v>177890000000</v>
+        <v>24660860000</v>
       </c>
       <c r="O29" t="n">
-        <v>134664000000</v>
+        <v>19255340000</v>
       </c>
       <c r="P29" t="n">
-        <v>198159000000</v>
+        <v>32812270000</v>
       </c>
       <c r="Q29" t="n">
-        <v>211582000000</v>
+        <v>23657140000</v>
       </c>
       <c r="R29" t="n">
-        <v>254806000000</v>
+        <v>25144210000</v>
       </c>
       <c r="S29" t="n">
-        <v>281623000000</v>
+        <v>36149820000</v>
       </c>
       <c r="T29" t="n">
-        <v>262556000000</v>
+        <v>28319120000</v>
       </c>
       <c r="U29" t="n">
-        <v>207232000000</v>
+        <v>28254360000</v>
       </c>
       <c r="V29" t="n">
-        <v>298859000000</v>
+        <v>34873780000</v>
       </c>
       <c r="W29" t="n">
-        <v>373030000000</v>
+        <v>33565130000</v>
       </c>
       <c r="X29" t="n">
-        <v>372132000000</v>
+        <v>35647710000</v>
       </c>
       <c r="Y29" t="n">
-        <v>292175000000</v>
+        <v>43028780000</v>
       </c>
     </row>
     <row r="30">
@@ -51382,73 +51382,73 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>8756050000</v>
+        <v>94600000</v>
       </c>
       <c r="D30" t="n">
-        <v>8859130000</v>
+        <v>117530000</v>
       </c>
       <c r="E30" t="n">
-        <v>11597540000</v>
+        <v>127810000</v>
       </c>
       <c r="F30" t="n">
-        <v>11754010000</v>
+        <v>116400000</v>
       </c>
       <c r="G30" t="n">
-        <v>16928760000</v>
+        <v>117270000</v>
       </c>
       <c r="H30" t="n">
-        <v>13348710000</v>
+        <v>82110000</v>
       </c>
       <c r="I30" t="n">
-        <v>16886990000</v>
+        <v>75110000</v>
       </c>
       <c r="J30" t="n">
-        <v>17937290000</v>
+        <v>71910000</v>
       </c>
       <c r="K30" t="n">
-        <v>14379680000</v>
+        <v>64420000</v>
       </c>
       <c r="L30" t="n">
-        <v>25315190000</v>
+        <v>52110000</v>
       </c>
       <c r="M30" t="n">
-        <v>13488330000</v>
+        <v>41810000</v>
       </c>
       <c r="N30" t="n">
-        <v>24660860000</v>
+        <v>52250000</v>
       </c>
       <c r="O30" t="n">
-        <v>19255340000</v>
+        <v>56410000</v>
       </c>
       <c r="P30" t="n">
-        <v>32812270000</v>
+        <v>53320000</v>
       </c>
       <c r="Q30" t="n">
-        <v>23657140000</v>
+        <v>40120000</v>
       </c>
       <c r="R30" t="n">
-        <v>25144210000</v>
+        <v>37520000</v>
       </c>
       <c r="S30" t="n">
-        <v>36149820000</v>
+        <v>43090000</v>
       </c>
       <c r="T30" t="n">
-        <v>28319120000</v>
+        <v>52900000</v>
       </c>
       <c r="U30" t="n">
-        <v>28254360000</v>
+        <v>55460000</v>
       </c>
       <c r="V30" t="n">
-        <v>34873780000</v>
+        <v>64260000</v>
       </c>
       <c r="W30" t="n">
-        <v>33565130000</v>
+        <v>91340000</v>
       </c>
       <c r="X30" t="n">
-        <v>35647710000</v>
+        <v>67350000</v>
       </c>
       <c r="Y30" t="n">
-        <v>43028780000</v>
+        <v>140060000</v>
       </c>
     </row>
     <row r="31">
@@ -51459,73 +51459,73 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>94600000</v>
+        <v>1230720000</v>
       </c>
       <c r="D31" t="n">
-        <v>117530000</v>
+        <v>755850000</v>
       </c>
       <c r="E31" t="n">
-        <v>127810000</v>
+        <v>526380000</v>
       </c>
       <c r="F31" t="n">
-        <v>116400000</v>
+        <v>1676510000</v>
       </c>
       <c r="G31" t="n">
-        <v>117270000</v>
+        <v>1360160000</v>
       </c>
       <c r="H31" t="n">
-        <v>82110000</v>
+        <v>1708980000</v>
       </c>
       <c r="I31" t="n">
-        <v>75110000</v>
+        <v>868350000</v>
       </c>
       <c r="J31" t="n">
-        <v>71910000</v>
+        <v>1054430000</v>
       </c>
       <c r="K31" t="n">
-        <v>64420000</v>
+        <v>222710000</v>
       </c>
       <c r="L31" t="n">
-        <v>52110000</v>
+        <v>939960000</v>
       </c>
       <c r="M31" t="n">
-        <v>41810000</v>
+        <v>635520000</v>
       </c>
       <c r="N31" t="n">
-        <v>52250000</v>
+        <v>543810000</v>
       </c>
       <c r="O31" t="n">
-        <v>56410000</v>
+        <v>738660000</v>
       </c>
       <c r="P31" t="n">
-        <v>53320000</v>
+        <v>747000000</v>
       </c>
       <c r="Q31" t="n">
-        <v>40120000</v>
+        <v>546820000</v>
       </c>
       <c r="R31" t="n">
-        <v>37520000</v>
+        <v>3590500000</v>
       </c>
       <c r="S31" t="n">
-        <v>43090000</v>
+        <v>2252790000</v>
       </c>
       <c r="T31" t="n">
-        <v>52900000</v>
+        <v>2205010000</v>
       </c>
       <c r="U31" t="n">
-        <v>55460000</v>
+        <v>2806840000</v>
       </c>
       <c r="V31" t="n">
-        <v>64260000</v>
+        <v>2849320000</v>
       </c>
       <c r="W31" t="n">
-        <v>91340000</v>
+        <v>4075710000</v>
       </c>
       <c r="X31" t="n">
-        <v>67350000</v>
+        <v>2868810000</v>
       </c>
       <c r="Y31" t="n">
-        <v>140060000</v>
+        <v>3751330000</v>
       </c>
     </row>
     <row r="32">
@@ -51536,73 +51536,73 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>1230720000</v>
+        <v>70180000</v>
       </c>
       <c r="D32" t="n">
-        <v>755850000</v>
+        <v>37700000</v>
       </c>
       <c r="E32" t="n">
-        <v>526380000</v>
+        <v>67160000</v>
       </c>
       <c r="F32" t="n">
-        <v>1676510000</v>
+        <v>66780000</v>
       </c>
       <c r="G32" t="n">
-        <v>1360160000</v>
+        <v>28010000</v>
       </c>
       <c r="H32" t="n">
-        <v>1708980000</v>
+        <v>22320000</v>
       </c>
       <c r="I32" t="n">
-        <v>868350000</v>
+        <v>17720000</v>
       </c>
       <c r="J32" t="n">
-        <v>1054430000</v>
+        <v>23510000</v>
       </c>
       <c r="K32" t="n">
-        <v>222710000</v>
+        <v>16030000</v>
       </c>
       <c r="L32" t="n">
-        <v>939960000</v>
+        <v>11480000</v>
       </c>
       <c r="M32" t="n">
-        <v>635520000</v>
+        <v>9530000</v>
       </c>
       <c r="N32" t="n">
-        <v>543810000</v>
+        <v>70750000</v>
       </c>
       <c r="O32" t="n">
-        <v>738660000</v>
+        <v>9190000</v>
       </c>
       <c r="P32" t="n">
-        <v>747000000</v>
+        <v>10580000</v>
       </c>
       <c r="Q32" t="n">
-        <v>546820000</v>
+        <v>13700000</v>
       </c>
       <c r="R32" t="n">
-        <v>3590500000</v>
+        <v>11770000</v>
       </c>
       <c r="S32" t="n">
-        <v>2252790000</v>
+        <v>56480000</v>
       </c>
       <c r="T32" t="n">
-        <v>2205010000</v>
+        <v>15610000</v>
       </c>
       <c r="U32" t="n">
-        <v>2806840000</v>
+        <v>10980000</v>
       </c>
       <c r="V32" t="n">
-        <v>2849320000</v>
+        <v>10720000</v>
       </c>
       <c r="W32" t="n">
-        <v>4075710000</v>
+        <v>26700000</v>
       </c>
       <c r="X32" t="n">
-        <v>2868810000</v>
+        <v>32180000</v>
       </c>
       <c r="Y32" t="n">
-        <v>3751330000</v>
+        <v>29450000</v>
       </c>
     </row>
     <row r="33">
@@ -51613,73 +51613,73 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>70180000</v>
+        <v>1161780000</v>
       </c>
       <c r="D33" t="n">
-        <v>37700000</v>
+        <v>1399540000</v>
       </c>
       <c r="E33" t="n">
-        <v>67160000</v>
+        <v>840400000</v>
       </c>
       <c r="F33" t="n">
-        <v>66780000</v>
+        <v>1145980000</v>
       </c>
       <c r="G33" t="n">
-        <v>28010000</v>
+        <v>762850000</v>
       </c>
       <c r="H33" t="n">
-        <v>22320000</v>
+        <v>1357570000</v>
       </c>
       <c r="I33" t="n">
-        <v>17720000</v>
+        <v>1549390000</v>
       </c>
       <c r="J33" t="n">
-        <v>23510000</v>
+        <v>1805850000</v>
       </c>
       <c r="K33" t="n">
-        <v>16030000</v>
+        <v>2237960000</v>
       </c>
       <c r="L33" t="n">
-        <v>11480000</v>
+        <v>2166660000</v>
       </c>
       <c r="M33" t="n">
-        <v>9530000</v>
+        <v>2686380000</v>
       </c>
       <c r="N33" t="n">
-        <v>70750000</v>
+        <v>2022970000</v>
       </c>
       <c r="O33" t="n">
-        <v>9190000</v>
+        <v>1941680000</v>
       </c>
       <c r="P33" t="n">
-        <v>10580000</v>
+        <v>3321140000</v>
       </c>
       <c r="Q33" t="n">
-        <v>13700000</v>
+        <v>2836490000</v>
       </c>
       <c r="R33" t="n">
-        <v>11770000</v>
+        <v>3898000000</v>
       </c>
       <c r="S33" t="n">
-        <v>56480000</v>
+        <v>2949420000</v>
       </c>
       <c r="T33" t="n">
-        <v>15610000</v>
+        <v>4760860000</v>
       </c>
       <c r="U33" t="n">
-        <v>10980000</v>
+        <v>5624760000</v>
       </c>
       <c r="V33" t="n">
-        <v>10720000</v>
+        <v>4812960000</v>
       </c>
       <c r="W33" t="n">
-        <v>26700000</v>
+        <v>4606500000</v>
       </c>
       <c r="X33" t="n">
-        <v>32180000</v>
+        <v>4475700000</v>
       </c>
       <c r="Y33" t="n">
-        <v>29450000</v>
+        <v>6868960000</v>
       </c>
     </row>
     <row r="34">
@@ -51690,73 +51690,73 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>1161780000</v>
+        <v>3733220000</v>
       </c>
       <c r="D34" t="n">
-        <v>1399540000</v>
+        <v>2769690000</v>
       </c>
       <c r="E34" t="n">
-        <v>840400000</v>
+        <v>2847020000</v>
       </c>
       <c r="F34" t="n">
-        <v>1145980000</v>
+        <v>2639770000</v>
       </c>
       <c r="G34" t="n">
-        <v>762850000</v>
+        <v>4213040000</v>
       </c>
       <c r="H34" t="n">
-        <v>1357570000</v>
+        <v>3609870000</v>
       </c>
       <c r="I34" t="n">
-        <v>1549390000</v>
+        <v>6121830000</v>
       </c>
       <c r="J34" t="n">
-        <v>1805850000</v>
+        <v>3412210000</v>
       </c>
       <c r="K34" t="n">
-        <v>2237960000</v>
+        <v>2608930000</v>
       </c>
       <c r="L34" t="n">
-        <v>2166660000</v>
+        <v>2475350000</v>
       </c>
       <c r="M34" t="n">
-        <v>2686380000</v>
+        <v>1328730000</v>
       </c>
       <c r="N34" t="n">
-        <v>2022970000</v>
+        <v>1031480000</v>
       </c>
       <c r="O34" t="n">
-        <v>1941680000</v>
+        <v>3364350000</v>
       </c>
       <c r="P34" t="n">
-        <v>3321140000</v>
+        <v>1083190000</v>
       </c>
       <c r="Q34" t="n">
-        <v>2836490000</v>
+        <v>825570000</v>
       </c>
       <c r="R34" t="n">
-        <v>3898000000</v>
+        <v>856180000</v>
       </c>
       <c r="S34" t="n">
-        <v>2949420000</v>
+        <v>1063310000</v>
       </c>
       <c r="T34" t="n">
-        <v>4760860000</v>
+        <v>933500000</v>
       </c>
       <c r="U34" t="n">
-        <v>5624760000</v>
+        <v>1952340000</v>
       </c>
       <c r="V34" t="n">
-        <v>4812960000</v>
+        <v>3822860000</v>
       </c>
       <c r="W34" t="n">
-        <v>4606500000</v>
+        <v>2505150000</v>
       </c>
       <c r="X34" t="n">
-        <v>4475700000</v>
+        <v>3083360000</v>
       </c>
       <c r="Y34" t="n">
-        <v>6868960000</v>
+        <v>6114880000</v>
       </c>
     </row>
     <row r="35">
